--- a/plot.xlsx
+++ b/plot.xlsx
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,6 +381,76 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>256</v>
+      </c>
+      <c r="B6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plot.xlsx
+++ b/plot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project2-Stream-Compaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ottavio\Desktop\Project2-Stream-Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,6 +88,1372 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve scan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6C0B-4380-A440-9CF6C2FDB0E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work-efficient scan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6C0B-4380-A440-9CF6C2FDB0E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6C0B-4380-A440-9CF6C2FDB0E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="358125408"/>
+        <c:axId val="358122456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="358125408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358122456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="358122456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358125408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -166,6 +1532,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -201,6 +1584,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,15 +1756,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,5 +1853,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/plot.xlsx
+++ b/plot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ottavio\Desktop\Project2-Stream-Compaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project2-Stream-Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Block size</t>
   </si>
@@ -37,11 +37,20 @@
   <si>
     <t>Compact</t>
   </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t>Thrust</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +100,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -186,8 +195,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -255,7 +265,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6C0B-4380-A440-9CF6C2FDB0E2}"/>
             </c:ext>
@@ -337,8 +347,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -406,7 +417,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6C0B-4380-A440-9CF6C2FDB0E2}"/>
             </c:ext>
@@ -488,8 +499,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -557,7 +569,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-6C0B-4380-A440-9CF6C2FDB0E2}"/>
             </c:ext>
@@ -574,11 +586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="358125408"/>
-        <c:axId val="358122456"/>
+        <c:axId val="553539920"/>
+        <c:axId val="553540312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="358125408"/>
+        <c:axId val="553539920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,6 +622,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -676,7 +689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358122456"/>
+        <c:crossAx val="553540312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -684,7 +697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358122456"/>
+        <c:axId val="553540312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,6 +743,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -790,7 +804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358125408"/>
+        <c:crossAx val="553539920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1532,23 +1546,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1584,23 +1581,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1753,18 +1733,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,6 +1829,24 @@
       </c>
       <c r="D6">
         <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
